--- a/Producto/Web/Casos de prueba/Ejecuciones/4.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Ejecucion 16-09" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
   <si>
     <t>nro</t>
   </si>
@@ -811,8 +811,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -886,9 +886,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="26.25" thickBot="1">
       <c r="A9" s="4">
@@ -985,7 +983,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1059,9 +1057,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="26.25" thickBot="1">
       <c r="A9" s="4">
@@ -1156,7 +1152,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1230,9 +1226,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="26.25" thickBot="1">
       <c r="A9" s="4">
@@ -1326,8 +1320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1401,9 +1395,7 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10" t="s">
-        <v>32</v>
-      </c>
+      <c r="D8" s="10"/>
     </row>
     <row r="9" spans="1:4" ht="26.25" thickBot="1">
       <c r="A9" s="4">

--- a/Producto/Web/Casos de prueba/Ejecuciones/4.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/4.xlsx
@@ -1321,7 +1321,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/Producto/Web/Casos de prueba/Ejecuciones/4.xlsx
+++ b/Producto/Web/Casos de prueba/Ejecuciones/4.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="4"/>
+    <workbookView xWindow="6810" yWindow="315" windowWidth="14805" windowHeight="7950" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Ejecucion 16-09" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="50">
   <si>
     <t>nro</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Se muestra el mensaje "La playa se modificó exitosamente"</t>
   </si>
   <si>
-    <t>Ignacio Frigerio [autor]</t>
-  </si>
-  <si>
     <t>Ingreso "CPA_Playa1" en el campo nombre de playa</t>
   </si>
   <si>
@@ -127,13 +124,58 @@
   </si>
   <si>
     <t>Se muestra el formulario, pero sin la provincia, departamento y ciudad.</t>
+  </si>
+  <si>
+    <t>Marcos Barrera [autor]</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Revisado</t>
+  </si>
+  <si>
+    <t>Leonel Romero</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 16/09</t>
+  </si>
+  <si>
+    <t>3.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 25/09</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 02/10</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 15/10</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>Se agrega Ejecucion 20/10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -279,22 +321,39 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF4BACC6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF548DD4"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF548DD4"/>
       </left>
       <right style="medium">
-        <color rgb="FF4BACC6"/>
+        <color rgb="FF548DD4"/>
       </right>
-      <top style="medium">
-        <color rgb="FF548DD4"/>
+      <top style="thin">
+        <color theme="3"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color theme="3"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,9 +368,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -341,6 +397,15 @@
     <xf numFmtId="14" fontId="1" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -350,6 +415,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -398,7 +466,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -430,9 +498,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -464,6 +533,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -639,14 +709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -654,24 +724,24 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41898</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,10 +752,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -695,19 +765,19 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -717,11 +787,11 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -731,9 +801,9 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="13"/>
-    </row>
-    <row r="10" spans="1:4" ht="51.75" thickBot="1">
+      <c r="D9" s="12"/>
+    </row>
+    <row r="10" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -741,31 +811,31 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="13"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D11" s="12"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="13"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -775,9 +845,9 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13"/>
-    </row>
-    <row r="14" spans="1:4" ht="39" thickBot="1">
+      <c r="D13" s="12"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -785,11 +855,11 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="13"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
+        <v>24</v>
+      </c>
+      <c r="D14" s="12"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -799,7 +869,7 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="13"/>
+      <c r="D15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -808,14 +878,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -823,24 +893,24 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41907</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -851,10 +921,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -864,19 +934,19 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -886,9 +956,9 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -898,9 +968,9 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="77.25" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="77.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -908,33 +978,33 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -944,9 +1014,9 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="39" thickBot="1">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -954,11 +1024,11 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -968,8 +1038,8 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>33</v>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -979,14 +1049,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -994,24 +1064,24 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41914</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1022,10 +1092,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1035,19 +1105,19 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1057,9 +1127,9 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1069,9 +1139,9 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="51.75" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1079,31 +1149,31 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1113,9 +1183,9 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="39" thickBot="1">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1123,11 +1193,11 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1137,8 +1207,8 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1148,14 +1218,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -1163,24 +1233,24 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41927</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1191,10 +1261,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1204,19 +1274,19 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1226,9 +1296,9 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1238,9 +1308,9 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="51.75" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1248,31 +1318,31 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1282,9 +1352,9 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="39" thickBot="1">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1292,11 +1362,11 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1306,8 +1376,8 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>33</v>
+      <c r="D15" s="13" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1317,14 +1387,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" customWidth="1"/>
@@ -1332,24 +1402,24 @@
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="B3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="C3" s="8">
         <v>41932</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="5" spans="1:4" ht="32.25" thickBot="1">
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:4" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -1360,10 +1430,10 @@
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="26.25" thickBot="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -1373,19 +1443,19 @@
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="5"/>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1395,9 +1465,9 @@
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="26.25" thickBot="1">
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -1407,9 +1477,9 @@
       <c r="C9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="51.75" thickBot="1">
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -1417,31 +1487,31 @@
         <v>17</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1">
+        <v>25</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4">
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4">
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" thickBot="1">
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -1451,9 +1521,9 @@
       <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="39" thickBot="1">
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1461,11 +1531,11 @@
         <v>20</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="25.5">
+        <v>24</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1475,8 +1545,8 @@
       <c r="C15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="11" t="s">
-        <v>34</v>
+      <c r="D15" s="10" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1486,14 +1556,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
@@ -1501,7 +1571,7 @@
     <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -1518,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="38.25">
+    <row r="2" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>11</v>
       </c>
@@ -1529,10 +1599,112 @@
         <v>4</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5">
+        <v>41795</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="5">
+        <v>41898</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="5">
+        <v>41907</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="5">
+        <v>41914</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5">
+        <v>41927</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="16">
+        <v>41932</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
